--- a/3/1/Tasa de política monetaria y de la facilidad permanente 1995 a 2021 - Mensual.xlsx
+++ b/3/1/Tasa de política monetaria y de la facilidad permanente 1995 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="299">
   <si>
     <t>Serie</t>
   </si>
@@ -908,6 +908,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1265,7 +1268,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D295"/>
+  <dimension ref="A1:D296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4831,6 +4834,20 @@
         <v>0.38</v>
       </c>
     </row>
+    <row r="296" spans="1:4">
+      <c r="A296" t="s">
+        <v>298</v>
+      </c>
+      <c r="B296">
+        <v>0.75</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+      <c r="D296">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/1/Tasa de política monetaria y de la facilidad permanente 1995 a 2021 - Mensual.xlsx
+++ b/3/1/Tasa de política monetaria y de la facilidad permanente 1995 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="300">
   <si>
     <t>Serie</t>
   </si>
@@ -911,6 +911,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1268,7 +1271,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D296"/>
+  <dimension ref="A1:D297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4848,6 +4851,20 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="297" spans="1:4">
+      <c r="A297" t="s">
+        <v>299</v>
+      </c>
+      <c r="B297">
+        <v>1.5</v>
+      </c>
+      <c r="C297">
+        <v>1.75</v>
+      </c>
+      <c r="D297">
+        <v>1.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/1/Tasa de política monetaria y de la facilidad permanente 1995 a 2021 - Mensual.xlsx
+++ b/3/1/Tasa de política monetaria y de la facilidad permanente 1995 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="301">
   <si>
     <t>Serie</t>
   </si>
@@ -914,6 +914,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1271,7 +1274,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D297"/>
+  <dimension ref="A1:D298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4865,6 +4868,20 @@
         <v>1.25</v>
       </c>
     </row>
+    <row r="298" spans="1:4">
+      <c r="A298" t="s">
+        <v>300</v>
+      </c>
+      <c r="B298">
+        <v>2.25</v>
+      </c>
+      <c r="C298">
+        <v>2.5</v>
+      </c>
+      <c r="D298">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
